--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/INVENTARIO 7 NOVIEMBRE HERRADURA.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/INVENTARIO 7 NOVIEMBRE HERRADURA.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO  2 0 2 1\CENTRAL # 10  OCTUBRE 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17550" windowHeight="10500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Hoja1!$4:$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -290,11 +290,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +337,13 @@
     </font>
     <font>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -423,7 +430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -442,18 +449,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -738,8 +746,8 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
+      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,42 +763,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
       <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
         <v>44507</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -831,7 +839,7 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="2">
-        <f>C5-(D5*2.2)</f>
+        <f t="shared" ref="E5:E36" si="0">C5-(D5*2.2)</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="F5" s="1"/>
@@ -839,7 +847,7 @@
         <v>88</v>
       </c>
       <c r="H5" s="4">
-        <f>G5*E5</f>
+        <f t="shared" ref="H5:H36" si="1">G5*E5</f>
         <v>48.400000000000006</v>
       </c>
     </row>
@@ -855,7 +863,7 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="2">
-        <f>C6-(D6*2.2)</f>
+        <f t="shared" si="0"/>
         <v>4.95</v>
       </c>
       <c r="F6" s="1"/>
@@ -863,7 +871,7 @@
         <v>168</v>
       </c>
       <c r="H6" s="4">
-        <f>G6*E6</f>
+        <f t="shared" si="1"/>
         <v>831.6</v>
       </c>
     </row>
@@ -879,7 +887,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="2">
-        <f>C7-(D7*2.2)</f>
+        <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
       <c r="F7" s="1"/>
@@ -887,7 +895,7 @@
         <v>100</v>
       </c>
       <c r="H7" s="4">
-        <f>G7*E7</f>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
     </row>
@@ -905,7 +913,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="2">
-        <f>C8-(D8*2.2)</f>
+        <f t="shared" si="0"/>
         <v>16.799999999999997</v>
       </c>
       <c r="F8" s="1"/>
@@ -913,7 +921,7 @@
         <v>80</v>
       </c>
       <c r="H8" s="4">
-        <f>G8*E8</f>
+        <f t="shared" si="1"/>
         <v>1343.9999999999998</v>
       </c>
     </row>
@@ -929,7 +937,7 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="2">
-        <f>C9-(D9*2.2)</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="F9" s="1"/>
@@ -937,7 +945,7 @@
         <v>70</v>
       </c>
       <c r="H9" s="4">
-        <f>G9*E9</f>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
     </row>
@@ -955,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="2">
-        <f>C10-(D10*2.2)</f>
+        <f t="shared" si="0"/>
         <v>27.6</v>
       </c>
       <c r="F10" s="1"/>
@@ -963,7 +971,7 @@
         <v>22</v>
       </c>
       <c r="H10" s="4">
-        <f>G10*E10</f>
+        <f t="shared" si="1"/>
         <v>607.20000000000005</v>
       </c>
     </row>
@@ -979,7 +987,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2">
-        <f>C11-(D11*2.2)</f>
+        <f t="shared" si="0"/>
         <v>2.15</v>
       </c>
       <c r="F11" s="1"/>
@@ -987,7 +995,7 @@
         <v>105</v>
       </c>
       <c r="H11" s="4">
-        <f>G11*E11</f>
+        <f t="shared" si="1"/>
         <v>225.75</v>
       </c>
     </row>
@@ -1003,7 +1011,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2">
-        <f>C12-(D12*2.2)</f>
+        <f t="shared" si="0"/>
         <v>3.1</v>
       </c>
       <c r="F12" s="1"/>
@@ -1011,7 +1019,7 @@
         <v>120</v>
       </c>
       <c r="H12" s="4">
-        <f>G12*E12</f>
+        <f t="shared" si="1"/>
         <v>372</v>
       </c>
     </row>
@@ -1028,7 +1036,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2">
-        <f>C13-(D13*2.2)</f>
+        <f t="shared" si="0"/>
         <v>121.00000000000006</v>
       </c>
       <c r="F13" s="1">
@@ -1038,7 +1046,7 @@
         <v>54</v>
       </c>
       <c r="H13" s="4">
-        <f>G13*E13</f>
+        <f t="shared" si="1"/>
         <v>6534.0000000000027</v>
       </c>
     </row>
@@ -1056,7 +1064,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="2">
-        <f>C14-(D14*2.2)</f>
+        <f t="shared" si="0"/>
         <v>123.8</v>
       </c>
       <c r="F14" s="1"/>
@@ -1064,7 +1072,7 @@
         <v>48</v>
       </c>
       <c r="H14" s="4">
-        <f>G14*E14</f>
+        <f t="shared" si="1"/>
         <v>5942.4</v>
       </c>
     </row>
@@ -1080,7 +1088,7 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2">
-        <f>C15-(D15*2.2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F15" s="1"/>
@@ -1088,7 +1096,7 @@
         <v>190</v>
       </c>
       <c r="H15" s="4">
-        <f>G15*E15</f>
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
     </row>
@@ -1106,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="2">
-        <f>C16-(D16*2.2)</f>
+        <f t="shared" si="0"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="F16" s="1"/>
@@ -1114,7 +1122,7 @@
         <v>106</v>
       </c>
       <c r="H16" s="4">
-        <f>G16*E16</f>
+        <f t="shared" si="1"/>
         <v>1017.6000000000001</v>
       </c>
     </row>
@@ -1130,7 +1138,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="2">
-        <f>C17-(D17*2.2)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="F17" s="1"/>
@@ -1138,7 +1146,7 @@
         <v>90</v>
       </c>
       <c r="H17" s="4">
-        <f>G17*E17</f>
+        <f t="shared" si="1"/>
         <v>1530</v>
       </c>
     </row>
@@ -1156,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="2">
-        <f>C18-(D18*2.2)</f>
+        <f t="shared" si="0"/>
         <v>15.75</v>
       </c>
       <c r="F18" s="1"/>
@@ -1164,7 +1172,7 @@
         <v>56</v>
       </c>
       <c r="H18" s="4">
-        <f>G18*E18</f>
+        <f t="shared" si="1"/>
         <v>882</v>
       </c>
     </row>
@@ -1180,7 +1188,7 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="2">
-        <f>C19-(D19*2.2)</f>
+        <f t="shared" si="0"/>
         <v>7.4</v>
       </c>
       <c r="F19" s="1"/>
@@ -1188,7 +1196,7 @@
         <v>74</v>
       </c>
       <c r="H19" s="4">
-        <f>G19*E19</f>
+        <f t="shared" si="1"/>
         <v>547.6</v>
       </c>
     </row>
@@ -1204,7 +1212,7 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="2">
-        <f>C20-(D20*2.2)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F20" s="1"/>
@@ -1212,7 +1220,7 @@
         <v>64</v>
       </c>
       <c r="H20" s="4">
-        <f>G20*E20</f>
+        <f t="shared" si="1"/>
         <v>640</v>
       </c>
     </row>
@@ -1230,7 +1238,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="2">
-        <f>C21-(D21*2.2)</f>
+        <f t="shared" si="0"/>
         <v>48.599999999999994</v>
       </c>
       <c r="F21" s="1"/>
@@ -1238,7 +1246,7 @@
         <v>30</v>
       </c>
       <c r="H21" s="4">
-        <f>G21*E21</f>
+        <f t="shared" si="1"/>
         <v>1457.9999999999998</v>
       </c>
     </row>
@@ -1254,7 +1262,7 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="2">
-        <f>C22-(D22*2.2)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F22" s="1"/>
@@ -1262,7 +1270,7 @@
         <v>26</v>
       </c>
       <c r="H22" s="4">
-        <f>G22*E22</f>
+        <f t="shared" si="1"/>
         <v>208</v>
       </c>
     </row>
@@ -1281,7 +1289,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="2">
-        <f>C23-(D23*2.2)</f>
+        <f t="shared" si="0"/>
         <v>210.6</v>
       </c>
       <c r="F23" s="1"/>
@@ -1289,7 +1297,7 @@
         <v>26</v>
       </c>
       <c r="H23" s="4">
-        <f>G23*E23</f>
+        <f t="shared" si="1"/>
         <v>5475.5999999999995</v>
       </c>
     </row>
@@ -1306,7 +1314,7 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="2">
-        <f>C24-(D24*2.2)</f>
+        <f t="shared" si="0"/>
         <v>930.8</v>
       </c>
       <c r="F24" s="1"/>
@@ -1314,7 +1322,7 @@
         <v>25</v>
       </c>
       <c r="H24" s="4">
-        <f>G24*E24</f>
+        <f t="shared" si="1"/>
         <v>23270</v>
       </c>
     </row>
@@ -1330,7 +1338,7 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="2">
-        <f>C25-(D25*2.2)</f>
+        <f t="shared" si="0"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="F25" s="1"/>
@@ -1338,7 +1346,7 @@
         <v>44</v>
       </c>
       <c r="H25" s="4">
-        <f>G25*E25</f>
+        <f t="shared" si="1"/>
         <v>426.79999999999995</v>
       </c>
     </row>
@@ -1356,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="2">
-        <f>C26-(D26*2.2)</f>
+        <f t="shared" si="0"/>
         <v>35.599999999999994</v>
       </c>
       <c r="F26" s="1"/>
@@ -1364,7 +1372,7 @@
         <v>64</v>
       </c>
       <c r="H26" s="4">
-        <f>G26*E26</f>
+        <f t="shared" si="1"/>
         <v>2278.3999999999996</v>
       </c>
     </row>
@@ -1381,7 +1389,7 @@
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="2">
-        <f>C27-(D27*2.2)</f>
+        <f t="shared" si="0"/>
         <v>15.299999999999999</v>
       </c>
       <c r="F27" s="1"/>
@@ -1389,7 +1397,7 @@
         <v>144</v>
       </c>
       <c r="H27" s="4">
-        <f>G27*E27</f>
+        <f t="shared" si="1"/>
         <v>2203.1999999999998</v>
       </c>
     </row>
@@ -1407,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="2">
-        <f>C28-(D28*2.2)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="F28" s="1"/>
@@ -1415,7 +1423,7 @@
         <v>54</v>
       </c>
       <c r="H28" s="4">
-        <f>G28*E28</f>
+        <f t="shared" si="1"/>
         <v>810</v>
       </c>
     </row>
@@ -1431,7 +1439,7 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="2">
-        <f>C29-(D29*2.2)</f>
+        <f t="shared" si="0"/>
         <v>2.7</v>
       </c>
       <c r="F29" s="1"/>
@@ -1439,7 +1447,7 @@
         <v>90</v>
       </c>
       <c r="H29" s="4">
-        <f>G29*E29</f>
+        <f t="shared" si="1"/>
         <v>243.00000000000003</v>
       </c>
     </row>
@@ -1455,7 +1463,7 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="2">
-        <f>C30-(D30*2.2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F30" s="1"/>
@@ -1463,7 +1471,7 @@
         <v>290</v>
       </c>
       <c r="H30" s="4">
-        <f>G30*E30</f>
+        <f t="shared" si="1"/>
         <v>580</v>
       </c>
     </row>
@@ -1479,7 +1487,7 @@
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="2">
-        <f>C31-(D31*2.2)</f>
+        <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
       <c r="F31" s="1"/>
@@ -1487,7 +1495,7 @@
         <v>66</v>
       </c>
       <c r="H31" s="4">
-        <f>G31*E31</f>
+        <f t="shared" si="1"/>
         <v>184.79999999999998</v>
       </c>
     </row>
@@ -1503,7 +1511,7 @@
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="2">
-        <f>C32-(D32*2.2)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F32" s="1"/>
@@ -1511,7 +1519,7 @@
         <v>12</v>
       </c>
       <c r="H32" s="4">
-        <f>G32*E32</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
@@ -1527,7 +1535,7 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="2">
-        <f>C33-(D33*2.2)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="F33" s="1"/>
@@ -1535,7 +1543,7 @@
         <v>90</v>
       </c>
       <c r="H33" s="4">
-        <f>G33*E33</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
     </row>
@@ -1553,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="2">
-        <f>C34-(D34*2.2)</f>
+        <f t="shared" si="0"/>
         <v>60.8</v>
       </c>
       <c r="F34" s="1"/>
@@ -1561,7 +1569,7 @@
         <v>6</v>
       </c>
       <c r="H34" s="4">
-        <f>G34*E34</f>
+        <f t="shared" si="1"/>
         <v>364.79999999999995</v>
       </c>
     </row>
@@ -1577,7 +1585,7 @@
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="2">
-        <f>C35-(D35*2.2)</f>
+        <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
       <c r="F35" s="1"/>
@@ -1585,7 +1593,7 @@
         <v>12</v>
       </c>
       <c r="H35" s="4">
-        <f>G35*E35</f>
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
     </row>
@@ -1601,7 +1609,7 @@
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="2">
-        <f>C36-(D36*2.2)</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="F36" s="1"/>
@@ -1609,7 +1617,7 @@
         <v>82</v>
       </c>
       <c r="H36" s="4">
-        <f>G36*E36</f>
+        <f t="shared" si="1"/>
         <v>205</v>
       </c>
     </row>
@@ -1627,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="2">
-        <f>C37-(D37*2.2)</f>
+        <f t="shared" ref="E37:E64" si="2">C37-(D37*2.2)</f>
         <v>35.799999999999997</v>
       </c>
       <c r="F37" s="1"/>
@@ -1635,7 +1643,7 @@
         <v>48</v>
       </c>
       <c r="H37" s="4">
-        <f>G37*E37</f>
+        <f t="shared" ref="H37:H64" si="3">G37*E37</f>
         <v>1718.3999999999999</v>
       </c>
     </row>
@@ -1654,7 +1662,7 @@
         <v>5</v>
       </c>
       <c r="E38" s="2">
-        <f>C38-(D38*2.2)</f>
+        <f t="shared" si="2"/>
         <v>248.2</v>
       </c>
       <c r="F38" s="1"/>
@@ -1662,7 +1670,7 @@
         <v>49</v>
       </c>
       <c r="H38" s="4">
-        <f>G38*E38</f>
+        <f t="shared" si="3"/>
         <v>12161.8</v>
       </c>
     </row>
@@ -1678,7 +1686,7 @@
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="2">
-        <f>C39-(D39*2.2)</f>
+        <f t="shared" si="2"/>
         <v>2.8</v>
       </c>
       <c r="F39" s="1"/>
@@ -1686,7 +1694,7 @@
         <v>92</v>
       </c>
       <c r="H39" s="4">
-        <f>G39*E39</f>
+        <f t="shared" si="3"/>
         <v>257.59999999999997</v>
       </c>
     </row>
@@ -1702,7 +1710,7 @@
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="2">
-        <f>C40-(D40*2.2)</f>
+        <f t="shared" si="2"/>
         <v>10.75</v>
       </c>
       <c r="F40" s="1"/>
@@ -1710,7 +1718,7 @@
         <v>76</v>
       </c>
       <c r="H40" s="4">
-        <f>G40*E40</f>
+        <f t="shared" si="3"/>
         <v>817</v>
       </c>
     </row>
@@ -1726,7 +1734,7 @@
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="2">
-        <f>C41-(D41*2.2)</f>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
       <c r="F41" s="1"/>
@@ -1734,7 +1742,7 @@
         <v>132</v>
       </c>
       <c r="H41" s="4">
-        <f>G41*E41</f>
+        <f t="shared" si="3"/>
         <v>462</v>
       </c>
     </row>
@@ -1750,7 +1758,7 @@
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="2">
-        <f>C42-(D42*2.2)</f>
+        <f t="shared" si="2"/>
         <v>3.65</v>
       </c>
       <c r="F42" s="1"/>
@@ -1758,7 +1766,7 @@
         <v>138</v>
       </c>
       <c r="H42" s="4">
-        <f>G42*E42</f>
+        <f t="shared" si="3"/>
         <v>503.7</v>
       </c>
     </row>
@@ -1777,7 +1785,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="2">
-        <f>C43-(D43*2.2)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F43" s="1"/>
@@ -1785,7 +1793,7 @@
         <v>40</v>
       </c>
       <c r="H43" s="4">
-        <f>G43*E43</f>
+        <f t="shared" si="3"/>
         <v>800</v>
       </c>
     </row>
@@ -1802,7 +1810,7 @@
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="2">
-        <f>C44-(D44*2.2)</f>
+        <f t="shared" si="2"/>
         <v>17.8</v>
       </c>
       <c r="F44" s="1"/>
@@ -1810,7 +1818,7 @@
         <v>45</v>
       </c>
       <c r="H44" s="4">
-        <f>G44*E44</f>
+        <f t="shared" si="3"/>
         <v>801</v>
       </c>
     </row>
@@ -1826,7 +1834,7 @@
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="2">
-        <f>C45-(D45*2.2)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="F45" s="1"/>
@@ -1834,7 +1842,7 @@
         <v>60</v>
       </c>
       <c r="H45" s="4">
-        <f>G45*E45</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
@@ -1850,7 +1858,7 @@
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="2">
-        <f>C46-(D46*2.2)</f>
+        <f t="shared" si="2"/>
         <v>4.55</v>
       </c>
       <c r="F46" s="1"/>
@@ -1858,7 +1866,7 @@
         <v>64</v>
       </c>
       <c r="H46" s="4">
-        <f>G46*E46</f>
+        <f t="shared" si="3"/>
         <v>291.2</v>
       </c>
     </row>
@@ -1874,7 +1882,7 @@
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2">
-        <f>C47-(D47*2.2)</f>
+        <f t="shared" si="2"/>
         <v>27.22</v>
       </c>
       <c r="F47" s="1"/>
@@ -1882,7 +1890,7 @@
         <v>70</v>
       </c>
       <c r="H47" s="4">
-        <f>G47*E47</f>
+        <f t="shared" si="3"/>
         <v>1905.3999999999999</v>
       </c>
     </row>
@@ -1898,7 +1906,7 @@
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="2">
-        <f>C48-(D48*2.2)</f>
+        <f t="shared" si="2"/>
         <v>4.8499999999999996</v>
       </c>
       <c r="F48" s="1"/>
@@ -1906,11 +1914,11 @@
         <v>84</v>
       </c>
       <c r="H48" s="4">
-        <f>G48*E48</f>
+        <f t="shared" si="3"/>
         <v>407.4</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1922,7 +1930,7 @@
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="2">
-        <f>C49-(D49*2.2)</f>
+        <f t="shared" si="2"/>
         <v>6.95</v>
       </c>
       <c r="F49" s="1"/>
@@ -1930,11 +1938,11 @@
         <v>50</v>
       </c>
       <c r="H49" s="4">
-        <f>G49*E49</f>
+        <f t="shared" si="3"/>
         <v>347.5</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1948,7 +1956,7 @@
         <v>4</v>
       </c>
       <c r="E50" s="2">
-        <f>C50-(D50*2.2)</f>
+        <f t="shared" si="2"/>
         <v>45.8</v>
       </c>
       <c r="F50" s="1"/>
@@ -1956,11 +1964,11 @@
         <v>80</v>
       </c>
       <c r="H50" s="4">
-        <f>G50*E50</f>
+        <f t="shared" si="3"/>
         <v>3664</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1972,7 +1980,7 @@
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2">
-        <f>C51-(D51*2.2)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F51" s="1"/>
@@ -1980,11 +1988,11 @@
         <v>86</v>
       </c>
       <c r="H51" s="4">
-        <f>G51*E51</f>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1996,7 +2004,7 @@
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="2">
-        <f>C52-(D52*2.2)</f>
+        <f t="shared" si="2"/>
         <v>19.399999999999999</v>
       </c>
       <c r="F52" s="1"/>
@@ -2004,11 +2012,11 @@
         <v>60</v>
       </c>
       <c r="H52" s="4">
-        <f>G52*E52</f>
+        <f t="shared" si="3"/>
         <v>1164</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2021,7 +2029,7 @@
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="2">
-        <f>C53-(D53*2.2)</f>
+        <f t="shared" si="2"/>
         <v>2789.89</v>
       </c>
       <c r="F53" s="1"/>
@@ -2029,11 +2037,11 @@
         <v>35</v>
       </c>
       <c r="H53" s="4">
-        <f>G53*E53</f>
+        <f t="shared" si="3"/>
         <v>97646.15</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2045,7 +2053,7 @@
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="2">
-        <f>C54-(D54*2.2)</f>
+        <f t="shared" si="2"/>
         <v>0.65</v>
       </c>
       <c r="F54" s="1"/>
@@ -2053,11 +2061,11 @@
         <v>90</v>
       </c>
       <c r="H54" s="4">
-        <f>G54*E54</f>
+        <f t="shared" si="3"/>
         <v>58.5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2069,7 +2077,7 @@
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="2">
-        <f>C55-(D55*2.2)</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="F55" s="1"/>
@@ -2077,11 +2085,11 @@
         <v>86</v>
       </c>
       <c r="H55" s="4">
-        <f>G55*E55</f>
+        <f t="shared" si="3"/>
         <v>51.6</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2093,7 +2101,7 @@
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="2">
-        <f>C56-(D56*2.2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F56" s="1"/>
@@ -2101,11 +2109,11 @@
         <v>12</v>
       </c>
       <c r="H56" s="4">
-        <f>G56*E56</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -2117,7 +2125,7 @@
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="2">
-        <f>C57-(D57*2.2)</f>
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
       <c r="F57" s="1"/>
@@ -2125,11 +2133,11 @@
         <v>60</v>
       </c>
       <c r="H57" s="4">
-        <f>G57*E57</f>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -2141,7 +2149,7 @@
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="2">
-        <f>C58-(D58*2.2)</f>
+        <f t="shared" si="2"/>
         <v>2.1</v>
       </c>
       <c r="F58" s="1"/>
@@ -2149,11 +2157,11 @@
         <v>60</v>
       </c>
       <c r="H58" s="4">
-        <f>G58*E58</f>
+        <f t="shared" si="3"/>
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -2167,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="2">
-        <f>C59-(D59*2.2)</f>
+        <f t="shared" si="2"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="F59" s="1"/>
@@ -2175,11 +2183,11 @@
         <v>98</v>
       </c>
       <c r="H59" s="4">
-        <f>G59*E59</f>
+        <f t="shared" si="3"/>
         <v>646.80000000000007</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -2191,7 +2199,7 @@
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="2">
-        <f>C60-(D60*2.2)</f>
+        <f t="shared" si="2"/>
         <v>39.85</v>
       </c>
       <c r="F60" s="1"/>
@@ -2199,11 +2207,11 @@
         <v>94</v>
       </c>
       <c r="H60" s="4">
-        <f>G60*E60</f>
+        <f t="shared" si="3"/>
         <v>3745.9</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -2215,7 +2223,7 @@
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="2">
-        <f>C61-(D61*2.2)</f>
+        <f t="shared" si="2"/>
         <v>3.8</v>
       </c>
       <c r="F61" s="1"/>
@@ -2223,11 +2231,11 @@
         <v>148</v>
       </c>
       <c r="H61" s="4">
-        <f>G61*E61</f>
+        <f t="shared" si="3"/>
         <v>562.4</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -2239,7 +2247,7 @@
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="2">
-        <f>C62-(D62*2.2)</f>
+        <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
       <c r="F62" s="1"/>
@@ -2247,11 +2255,11 @@
         <v>86</v>
       </c>
       <c r="H62" s="4">
-        <f>G62*E62</f>
+        <f t="shared" si="3"/>
         <v>30.099999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -2263,7 +2271,7 @@
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="2">
-        <f>C63-(D63*2.2)</f>
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
       <c r="F63" s="1"/>
@@ -2271,11 +2279,12 @@
         <v>64</v>
       </c>
       <c r="H63" s="4">
-        <f>G63*E63</f>
+        <f t="shared" si="3"/>
         <v>57.6</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J63" s="18"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -2287,7 +2296,7 @@
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="2">
-        <f>C64-(D64*2.2)</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="F64" s="1"/>
@@ -2295,9 +2304,10 @@
         <v>64</v>
       </c>
       <c r="H64" s="4">
-        <f>G64*E64</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
+      <c r="J64" s="18"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
@@ -2319,6 +2329,7 @@
         <f>F65*G65</f>
         <v>264</v>
       </c>
+      <c r="J65" s="18"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
@@ -2340,6 +2351,7 @@
         <f>F66*G66</f>
         <v>405</v>
       </c>
+      <c r="J66" s="18"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
@@ -2361,7 +2373,7 @@
         <f>F67*G67</f>
         <v>88</v>
       </c>
-      <c r="J67" s="1"/>
+      <c r="J67" s="18"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
@@ -2386,7 +2398,7 @@
         <f>G68*E68</f>
         <v>240</v>
       </c>
-      <c r="J68" s="1"/>
+      <c r="J68" s="18"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
@@ -2411,6 +2423,7 @@
         <f>G69*E69</f>
         <v>211.20000000000002</v>
       </c>
+      <c r="J69" s="18"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
@@ -2435,6 +2448,7 @@
         <f>G70*E70</f>
         <v>488</v>
       </c>
+      <c r="J70" s="18"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
@@ -2459,6 +2473,7 @@
         <f>G71*E71</f>
         <v>180</v>
       </c>
+      <c r="J71" s="18"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
@@ -2483,6 +2498,7 @@
         <f>F72*G72</f>
         <v>40</v>
       </c>
+      <c r="J72" s="18"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
@@ -2504,7 +2520,7 @@
         <v>24</v>
       </c>
       <c r="H73" s="4">
-        <f t="shared" ref="H73:H75" si="0">F73*G73</f>
+        <f t="shared" ref="H73:H75" si="4">F73*G73</f>
         <v>24</v>
       </c>
     </row>
@@ -2528,7 +2544,7 @@
         <v>24</v>
       </c>
       <c r="H74" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
     </row>
@@ -2552,7 +2568,7 @@
         <v>76</v>
       </c>
       <c r="H75" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1900</v>
       </c>
     </row>
